--- a/Data/Renewals.xlsx
+++ b/Data/Renewals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilip.wakdikar\Downloads\CMIM_InsuranceEmailClassification.1.0.4\content\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilip.wakdikar\Downloads\CMIM_InsuranceEmailClassification.1.0.144074722\content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A9850-2919-4CDA-BAF3-425BCC1C7741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0238D4-2D86-437F-9AFF-D7F9A502C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32670" yWindow="2760" windowWidth="21540" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Effective Date</t>
   </si>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>lichaijeff@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance - PFF953094_x000D_
+This policy is due for renewal in 5 weeks time and I have yet to receive the renewal terms.I have written to you on 9/17/2022 for the renewal terms to be issued. Are you able to advise when the renewal is to occur?   RegardsDilip WakdikarRPA Pre-Sales Engineer  </t>
   </si>
 </sst>
 </file>
@@ -380,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D8"/>
@@ -464,6 +468,48 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45317</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45534</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45534</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
